--- a/files-master/App-7-Automated-Emails/people.xlsx
+++ b/files-master/App-7-Automated-Emails/people.xlsx
@@ -35,10 +35,10 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="15"/>
+        <color indexed="14"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>ypddjuio@yomail.info</t>
+      <t>kwzcqkasf@emltmp.com</t>
     </r>
   </si>
   <si>
@@ -52,10 +52,10 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="15"/>
+        <color indexed="14"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>kawnlyiw@supere.ml</t>
+      <t>afephkxnxuebds@dropmail.me</t>
     </r>
   </si>
   <si>
@@ -72,10 +72,10 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="15"/>
+        <color indexed="14"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>pythonprocourse2@gmail.com</t>
+      <t>afdlcbdof@10mail.org</t>
     </r>
   </si>
 </sst>
@@ -111,7 +111,7 @@
     <font>
       <u val="single"/>
       <sz val="10"/>
-      <color indexed="15"/>
+      <color indexed="14"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -136,12 +136,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -169,19 +169,6 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -227,17 +214,6 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -275,82 +251,6 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -360,7 +260,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -370,53 +270,23 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,9 +308,8 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
@@ -1506,7 +1375,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1516,8 +1385,7 @@
     <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.1719" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.35156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.35156" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1533,100 +1401,54 @@
       <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="4">
+      <c r="A2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="E2" s="7"/>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="A3" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="B3" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="D3" t="s" s="10">
+      <c r="D3" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
     </row>
     <row r="4" ht="14.7" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="A4" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B4" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="D4" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" ht="14.7" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" ht="14.7" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="" tooltip="" display="ypddjuio@yomail.info"/>
-    <hyperlink ref="C3" r:id="rId2" location="" tooltip="" display="kawnlyiw@supere.ml"/>
-    <hyperlink ref="C4" r:id="rId3" location="" tooltip="" display="pythonprocourse2@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId1" location="" tooltip="" display="kwzcqkasf@emltmp.com"/>
+    <hyperlink ref="C3" r:id="rId2" location="" tooltip="" display="afephkxnxuebds@dropmail.me"/>
+    <hyperlink ref="C4" r:id="rId3" location="" tooltip="" display="afdlcbdof@10mail.org"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
